--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF059D-141F-475A-AAEF-0E7680B2D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769ED09D-6800-49D6-A55A-59D80F1BF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37710" yWindow="-12150" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="-10440" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769ED09D-6800-49D6-A55A-59D80F1BF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC10965-DB36-49E6-9731-035FDD79C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="-10440" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37425" yWindow="-9765" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC10965-DB36-49E6-9731-035FDD79C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D5EA3D-8A30-4EC5-98B5-4C4978652CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37425" yWindow="-9765" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34110" yWindow="-8970" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1338,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D5EA3D-8A30-4EC5-98B5-4C4978652CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E01E67-F728-4688-A1C0-E65A671FEF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34110" yWindow="-8970" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E01E67-F728-4688-A1C0-E65A671FEF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA18E85-9CD2-4230-8C25-BBFCED081881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA18E85-9CD2-4230-8C25-BBFCED081881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD0B34-E00C-4CBB-84D4-CE51F041A115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD0B34-E00C-4CBB-84D4-CE51F041A115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33786331-81BD-4FF2-9878-C956EB785228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33786331-81BD-4FF2-9878-C956EB785228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9247A3-2F1B-45FC-93DD-18152EF58125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2046.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2046.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9247A3-2F1B-45FC-93DD-18152EF58125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAAD66B-689F-42B9-A716-8B1319E81E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
